--- a/project/uploads/93/split_output/12材质选用.xlsx
+++ b/project/uploads/93/split_output/12材质选用.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB7995A2-25E3-41B5-84AD-C895E1EC2F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DB60413-2FAB-42FA-9033-45A9CC24C6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{07783285-6ADE-44FF-8037-E00C289788C4}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="8170" xr2:uid="{A2012A5A-087B-4AD6-A404-04A5BDE63D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="12材质选用" sheetId="1" r:id="rId1"/>
@@ -2551,7 +2551,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 123" xfId="2" xr:uid="{5C1B94A3-C8DB-4535-AC19-2A850DFDED01}"/>
+    <cellStyle name="常规 123" xfId="2" xr:uid="{28CD66D5-5B3A-493B-B687-1A61AC39EBA7}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2587,7 +2587,7 @@
         <xdr:cNvPr id="2" name="文本框 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35116E45-4CE8-4FF5-A8A4-40070AEDC88B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C21F9D4-6286-4DDD-A674-F9B8A427C669}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2595,8 +2595,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1357630" y="1393825"/>
-          <a:ext cx="6424930" cy="441960"/>
+          <a:off x="1356360" y="1429385"/>
+          <a:ext cx="6414770" cy="441960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2757,7 +2757,7 @@
         <xdr:cNvPr id="3" name="文本框 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74FD0270-E060-4473-98D7-0B7DDD25E8C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC59F01-D48D-4286-B99D-EE76E64FB6AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2765,8 +2765,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5541010" y="12953365"/>
-          <a:ext cx="4746625" cy="830580"/>
+          <a:off x="5537200" y="12949555"/>
+          <a:ext cx="4744085" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2920,14 +2920,14 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>208915</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>151056</xdr:rowOff>
+      <xdr:rowOff>152549</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD2BF71-72C3-4313-8AD0-FDB3A7796352}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AE56ED-494D-441D-B78B-CEC6DA56B830}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2943,8 +2943,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3786505" y="14237970"/>
-          <a:ext cx="217170" cy="201930"/>
+          <a:off x="3783965" y="14199870"/>
+          <a:ext cx="215900" cy="203200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2968,14 +2968,14 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>290830</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>151056</xdr:rowOff>
+      <xdr:rowOff>152549</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A771B75-F148-4E94-B0FA-31F889B58E6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC14E88D-0921-49E7-899B-5F1F9F89129B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2991,8 +2991,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9939655" y="14237970"/>
-          <a:ext cx="219075" cy="201930"/>
+          <a:off x="9933305" y="14199870"/>
+          <a:ext cx="219075" cy="203200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3016,14 +3016,14 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>86995</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>7546</xdr:rowOff>
+      <xdr:rowOff>9040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{976C6A52-60FF-46E6-B9CC-5A588E1E8476}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC827BF-41E6-442B-A2FD-949AA1BFF46E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3039,8 +3039,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3663950" y="19771360"/>
-          <a:ext cx="217805" cy="201930"/>
+          <a:off x="3661410" y="19739610"/>
+          <a:ext cx="216535" cy="203200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3064,14 +3064,14 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>1842135</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>224753</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F30E6CBB-8B12-442B-BB7D-5781375623F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{514F6CA3-635A-460A-8237-82A00D7FC1C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3087,8 +3087,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9120505" y="19749135"/>
-          <a:ext cx="219710" cy="205740"/>
+          <a:off x="9109075" y="19717385"/>
+          <a:ext cx="219710" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8705,7 +8705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907C0073-AE02-4C62-B468-30E0297AACDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6460A67C-7FC3-4862-AB7F-9BEFC059BD18}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -8715,211 +8715,211 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="18.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="49.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="48.21875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.21875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="46.21875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="27.77734375" style="2" customWidth="1"/>
-    <col min="13" max="260" width="10" style="2"/>
-    <col min="261" max="261" width="18.44140625" style="2" customWidth="1"/>
-    <col min="262" max="262" width="94" style="2" customWidth="1"/>
-    <col min="263" max="516" width="10" style="2"/>
-    <col min="517" max="517" width="18.44140625" style="2" customWidth="1"/>
-    <col min="518" max="518" width="94" style="2" customWidth="1"/>
-    <col min="519" max="772" width="10" style="2"/>
-    <col min="773" max="773" width="18.44140625" style="2" customWidth="1"/>
-    <col min="774" max="774" width="94" style="2" customWidth="1"/>
-    <col min="775" max="1028" width="10" style="2"/>
-    <col min="1029" max="1029" width="18.44140625" style="2" customWidth="1"/>
-    <col min="1030" max="1030" width="94" style="2" customWidth="1"/>
-    <col min="1031" max="1284" width="10" style="2"/>
-    <col min="1285" max="1285" width="18.44140625" style="2" customWidth="1"/>
-    <col min="1286" max="1286" width="94" style="2" customWidth="1"/>
-    <col min="1287" max="1540" width="10" style="2"/>
-    <col min="1541" max="1541" width="18.44140625" style="2" customWidth="1"/>
-    <col min="1542" max="1542" width="94" style="2" customWidth="1"/>
-    <col min="1543" max="1796" width="10" style="2"/>
-    <col min="1797" max="1797" width="18.44140625" style="2" customWidth="1"/>
-    <col min="1798" max="1798" width="94" style="2" customWidth="1"/>
-    <col min="1799" max="2052" width="10" style="2"/>
-    <col min="2053" max="2053" width="18.44140625" style="2" customWidth="1"/>
-    <col min="2054" max="2054" width="94" style="2" customWidth="1"/>
-    <col min="2055" max="2308" width="10" style="2"/>
-    <col min="2309" max="2309" width="18.44140625" style="2" customWidth="1"/>
-    <col min="2310" max="2310" width="94" style="2" customWidth="1"/>
-    <col min="2311" max="2564" width="10" style="2"/>
-    <col min="2565" max="2565" width="18.44140625" style="2" customWidth="1"/>
-    <col min="2566" max="2566" width="94" style="2" customWidth="1"/>
-    <col min="2567" max="2820" width="10" style="2"/>
-    <col min="2821" max="2821" width="18.44140625" style="2" customWidth="1"/>
-    <col min="2822" max="2822" width="94" style="2" customWidth="1"/>
-    <col min="2823" max="3076" width="10" style="2"/>
-    <col min="3077" max="3077" width="18.44140625" style="2" customWidth="1"/>
-    <col min="3078" max="3078" width="94" style="2" customWidth="1"/>
-    <col min="3079" max="3332" width="10" style="2"/>
-    <col min="3333" max="3333" width="18.44140625" style="2" customWidth="1"/>
-    <col min="3334" max="3334" width="94" style="2" customWidth="1"/>
-    <col min="3335" max="3588" width="10" style="2"/>
-    <col min="3589" max="3589" width="18.44140625" style="2" customWidth="1"/>
-    <col min="3590" max="3590" width="94" style="2" customWidth="1"/>
-    <col min="3591" max="3844" width="10" style="2"/>
-    <col min="3845" max="3845" width="18.44140625" style="2" customWidth="1"/>
-    <col min="3846" max="3846" width="94" style="2" customWidth="1"/>
-    <col min="3847" max="4100" width="10" style="2"/>
-    <col min="4101" max="4101" width="18.44140625" style="2" customWidth="1"/>
-    <col min="4102" max="4102" width="94" style="2" customWidth="1"/>
-    <col min="4103" max="4356" width="10" style="2"/>
-    <col min="4357" max="4357" width="18.44140625" style="2" customWidth="1"/>
-    <col min="4358" max="4358" width="94" style="2" customWidth="1"/>
-    <col min="4359" max="4612" width="10" style="2"/>
-    <col min="4613" max="4613" width="18.44140625" style="2" customWidth="1"/>
-    <col min="4614" max="4614" width="94" style="2" customWidth="1"/>
-    <col min="4615" max="4868" width="10" style="2"/>
-    <col min="4869" max="4869" width="18.44140625" style="2" customWidth="1"/>
-    <col min="4870" max="4870" width="94" style="2" customWidth="1"/>
-    <col min="4871" max="5124" width="10" style="2"/>
-    <col min="5125" max="5125" width="18.44140625" style="2" customWidth="1"/>
-    <col min="5126" max="5126" width="94" style="2" customWidth="1"/>
-    <col min="5127" max="5380" width="10" style="2"/>
-    <col min="5381" max="5381" width="18.44140625" style="2" customWidth="1"/>
-    <col min="5382" max="5382" width="94" style="2" customWidth="1"/>
-    <col min="5383" max="5636" width="10" style="2"/>
-    <col min="5637" max="5637" width="18.44140625" style="2" customWidth="1"/>
-    <col min="5638" max="5638" width="94" style="2" customWidth="1"/>
-    <col min="5639" max="5892" width="10" style="2"/>
-    <col min="5893" max="5893" width="18.44140625" style="2" customWidth="1"/>
-    <col min="5894" max="5894" width="94" style="2" customWidth="1"/>
-    <col min="5895" max="6148" width="10" style="2"/>
-    <col min="6149" max="6149" width="18.44140625" style="2" customWidth="1"/>
-    <col min="6150" max="6150" width="94" style="2" customWidth="1"/>
-    <col min="6151" max="6404" width="10" style="2"/>
-    <col min="6405" max="6405" width="18.44140625" style="2" customWidth="1"/>
-    <col min="6406" max="6406" width="94" style="2" customWidth="1"/>
-    <col min="6407" max="6660" width="10" style="2"/>
-    <col min="6661" max="6661" width="18.44140625" style="2" customWidth="1"/>
-    <col min="6662" max="6662" width="94" style="2" customWidth="1"/>
-    <col min="6663" max="6916" width="10" style="2"/>
-    <col min="6917" max="6917" width="18.44140625" style="2" customWidth="1"/>
-    <col min="6918" max="6918" width="94" style="2" customWidth="1"/>
-    <col min="6919" max="7172" width="10" style="2"/>
-    <col min="7173" max="7173" width="18.44140625" style="2" customWidth="1"/>
-    <col min="7174" max="7174" width="94" style="2" customWidth="1"/>
-    <col min="7175" max="7428" width="10" style="2"/>
-    <col min="7429" max="7429" width="18.44140625" style="2" customWidth="1"/>
-    <col min="7430" max="7430" width="94" style="2" customWidth="1"/>
-    <col min="7431" max="7684" width="10" style="2"/>
-    <col min="7685" max="7685" width="18.44140625" style="2" customWidth="1"/>
-    <col min="7686" max="7686" width="94" style="2" customWidth="1"/>
-    <col min="7687" max="7940" width="10" style="2"/>
-    <col min="7941" max="7941" width="18.44140625" style="2" customWidth="1"/>
-    <col min="7942" max="7942" width="94" style="2" customWidth="1"/>
-    <col min="7943" max="8196" width="10" style="2"/>
-    <col min="8197" max="8197" width="18.44140625" style="2" customWidth="1"/>
-    <col min="8198" max="8198" width="94" style="2" customWidth="1"/>
-    <col min="8199" max="8452" width="10" style="2"/>
-    <col min="8453" max="8453" width="18.44140625" style="2" customWidth="1"/>
-    <col min="8454" max="8454" width="94" style="2" customWidth="1"/>
-    <col min="8455" max="8708" width="10" style="2"/>
-    <col min="8709" max="8709" width="18.44140625" style="2" customWidth="1"/>
-    <col min="8710" max="8710" width="94" style="2" customWidth="1"/>
-    <col min="8711" max="8964" width="10" style="2"/>
-    <col min="8965" max="8965" width="18.44140625" style="2" customWidth="1"/>
-    <col min="8966" max="8966" width="94" style="2" customWidth="1"/>
-    <col min="8967" max="9220" width="10" style="2"/>
-    <col min="9221" max="9221" width="18.44140625" style="2" customWidth="1"/>
-    <col min="9222" max="9222" width="94" style="2" customWidth="1"/>
-    <col min="9223" max="9476" width="10" style="2"/>
-    <col min="9477" max="9477" width="18.44140625" style="2" customWidth="1"/>
-    <col min="9478" max="9478" width="94" style="2" customWidth="1"/>
-    <col min="9479" max="9732" width="10" style="2"/>
-    <col min="9733" max="9733" width="18.44140625" style="2" customWidth="1"/>
-    <col min="9734" max="9734" width="94" style="2" customWidth="1"/>
-    <col min="9735" max="9988" width="10" style="2"/>
-    <col min="9989" max="9989" width="18.44140625" style="2" customWidth="1"/>
-    <col min="9990" max="9990" width="94" style="2" customWidth="1"/>
-    <col min="9991" max="10244" width="10" style="2"/>
-    <col min="10245" max="10245" width="18.44140625" style="2" customWidth="1"/>
-    <col min="10246" max="10246" width="94" style="2" customWidth="1"/>
-    <col min="10247" max="10500" width="10" style="2"/>
-    <col min="10501" max="10501" width="18.44140625" style="2" customWidth="1"/>
-    <col min="10502" max="10502" width="94" style="2" customWidth="1"/>
-    <col min="10503" max="10756" width="10" style="2"/>
-    <col min="10757" max="10757" width="18.44140625" style="2" customWidth="1"/>
-    <col min="10758" max="10758" width="94" style="2" customWidth="1"/>
-    <col min="10759" max="11012" width="10" style="2"/>
-    <col min="11013" max="11013" width="18.44140625" style="2" customWidth="1"/>
-    <col min="11014" max="11014" width="94" style="2" customWidth="1"/>
-    <col min="11015" max="11268" width="10" style="2"/>
-    <col min="11269" max="11269" width="18.44140625" style="2" customWidth="1"/>
-    <col min="11270" max="11270" width="94" style="2" customWidth="1"/>
-    <col min="11271" max="11524" width="10" style="2"/>
-    <col min="11525" max="11525" width="18.44140625" style="2" customWidth="1"/>
-    <col min="11526" max="11526" width="94" style="2" customWidth="1"/>
-    <col min="11527" max="11780" width="10" style="2"/>
-    <col min="11781" max="11781" width="18.44140625" style="2" customWidth="1"/>
-    <col min="11782" max="11782" width="94" style="2" customWidth="1"/>
-    <col min="11783" max="12036" width="10" style="2"/>
-    <col min="12037" max="12037" width="18.44140625" style="2" customWidth="1"/>
-    <col min="12038" max="12038" width="94" style="2" customWidth="1"/>
-    <col min="12039" max="12292" width="10" style="2"/>
-    <col min="12293" max="12293" width="18.44140625" style="2" customWidth="1"/>
-    <col min="12294" max="12294" width="94" style="2" customWidth="1"/>
-    <col min="12295" max="12548" width="10" style="2"/>
-    <col min="12549" max="12549" width="18.44140625" style="2" customWidth="1"/>
-    <col min="12550" max="12550" width="94" style="2" customWidth="1"/>
-    <col min="12551" max="12804" width="10" style="2"/>
-    <col min="12805" max="12805" width="18.44140625" style="2" customWidth="1"/>
-    <col min="12806" max="12806" width="94" style="2" customWidth="1"/>
-    <col min="12807" max="13060" width="10" style="2"/>
-    <col min="13061" max="13061" width="18.44140625" style="2" customWidth="1"/>
-    <col min="13062" max="13062" width="94" style="2" customWidth="1"/>
-    <col min="13063" max="13316" width="10" style="2"/>
-    <col min="13317" max="13317" width="18.44140625" style="2" customWidth="1"/>
-    <col min="13318" max="13318" width="94" style="2" customWidth="1"/>
-    <col min="13319" max="13572" width="10" style="2"/>
-    <col min="13573" max="13573" width="18.44140625" style="2" customWidth="1"/>
-    <col min="13574" max="13574" width="94" style="2" customWidth="1"/>
-    <col min="13575" max="13828" width="10" style="2"/>
-    <col min="13829" max="13829" width="18.44140625" style="2" customWidth="1"/>
-    <col min="13830" max="13830" width="94" style="2" customWidth="1"/>
-    <col min="13831" max="14084" width="10" style="2"/>
-    <col min="14085" max="14085" width="18.44140625" style="2" customWidth="1"/>
-    <col min="14086" max="14086" width="94" style="2" customWidth="1"/>
-    <col min="14087" max="14340" width="10" style="2"/>
-    <col min="14341" max="14341" width="18.44140625" style="2" customWidth="1"/>
-    <col min="14342" max="14342" width="94" style="2" customWidth="1"/>
-    <col min="14343" max="14596" width="10" style="2"/>
-    <col min="14597" max="14597" width="18.44140625" style="2" customWidth="1"/>
-    <col min="14598" max="14598" width="94" style="2" customWidth="1"/>
-    <col min="14599" max="14852" width="10" style="2"/>
-    <col min="14853" max="14853" width="18.44140625" style="2" customWidth="1"/>
-    <col min="14854" max="14854" width="94" style="2" customWidth="1"/>
-    <col min="14855" max="15108" width="10" style="2"/>
-    <col min="15109" max="15109" width="18.44140625" style="2" customWidth="1"/>
-    <col min="15110" max="15110" width="94" style="2" customWidth="1"/>
-    <col min="15111" max="15364" width="10" style="2"/>
-    <col min="15365" max="15365" width="18.44140625" style="2" customWidth="1"/>
-    <col min="15366" max="15366" width="94" style="2" customWidth="1"/>
-    <col min="15367" max="15620" width="10" style="2"/>
-    <col min="15621" max="15621" width="18.44140625" style="2" customWidth="1"/>
-    <col min="15622" max="15622" width="94" style="2" customWidth="1"/>
-    <col min="15623" max="15876" width="10" style="2"/>
-    <col min="15877" max="15877" width="18.44140625" style="2" customWidth="1"/>
-    <col min="15878" max="15878" width="94" style="2" customWidth="1"/>
-    <col min="15879" max="16132" width="10" style="2"/>
-    <col min="16133" max="16133" width="18.44140625" style="2" customWidth="1"/>
-    <col min="16134" max="16134" width="94" style="2" customWidth="1"/>
-    <col min="16135" max="16384" width="10" style="2"/>
+    <col min="1" max="3" width="18.08984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.08984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34" style="2" customWidth="1"/>
+    <col min="7" max="7" width="48.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="47.36328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.08984375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.81640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="45.36328125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="27.26953125" style="2" customWidth="1"/>
+    <col min="13" max="260" width="9.81640625" style="2"/>
+    <col min="261" max="261" width="18.08984375" style="2" customWidth="1"/>
+    <col min="262" max="262" width="92.26953125" style="2" customWidth="1"/>
+    <col min="263" max="516" width="9.81640625" style="2"/>
+    <col min="517" max="517" width="18.08984375" style="2" customWidth="1"/>
+    <col min="518" max="518" width="92.26953125" style="2" customWidth="1"/>
+    <col min="519" max="772" width="9.81640625" style="2"/>
+    <col min="773" max="773" width="18.08984375" style="2" customWidth="1"/>
+    <col min="774" max="774" width="92.26953125" style="2" customWidth="1"/>
+    <col min="775" max="1028" width="9.81640625" style="2"/>
+    <col min="1029" max="1029" width="18.08984375" style="2" customWidth="1"/>
+    <col min="1030" max="1030" width="92.26953125" style="2" customWidth="1"/>
+    <col min="1031" max="1284" width="9.81640625" style="2"/>
+    <col min="1285" max="1285" width="18.08984375" style="2" customWidth="1"/>
+    <col min="1286" max="1286" width="92.26953125" style="2" customWidth="1"/>
+    <col min="1287" max="1540" width="9.81640625" style="2"/>
+    <col min="1541" max="1541" width="18.08984375" style="2" customWidth="1"/>
+    <col min="1542" max="1542" width="92.26953125" style="2" customWidth="1"/>
+    <col min="1543" max="1796" width="9.81640625" style="2"/>
+    <col min="1797" max="1797" width="18.08984375" style="2" customWidth="1"/>
+    <col min="1798" max="1798" width="92.26953125" style="2" customWidth="1"/>
+    <col min="1799" max="2052" width="9.81640625" style="2"/>
+    <col min="2053" max="2053" width="18.08984375" style="2" customWidth="1"/>
+    <col min="2054" max="2054" width="92.26953125" style="2" customWidth="1"/>
+    <col min="2055" max="2308" width="9.81640625" style="2"/>
+    <col min="2309" max="2309" width="18.08984375" style="2" customWidth="1"/>
+    <col min="2310" max="2310" width="92.26953125" style="2" customWidth="1"/>
+    <col min="2311" max="2564" width="9.81640625" style="2"/>
+    <col min="2565" max="2565" width="18.08984375" style="2" customWidth="1"/>
+    <col min="2566" max="2566" width="92.26953125" style="2" customWidth="1"/>
+    <col min="2567" max="2820" width="9.81640625" style="2"/>
+    <col min="2821" max="2821" width="18.08984375" style="2" customWidth="1"/>
+    <col min="2822" max="2822" width="92.26953125" style="2" customWidth="1"/>
+    <col min="2823" max="3076" width="9.81640625" style="2"/>
+    <col min="3077" max="3077" width="18.08984375" style="2" customWidth="1"/>
+    <col min="3078" max="3078" width="92.26953125" style="2" customWidth="1"/>
+    <col min="3079" max="3332" width="9.81640625" style="2"/>
+    <col min="3333" max="3333" width="18.08984375" style="2" customWidth="1"/>
+    <col min="3334" max="3334" width="92.26953125" style="2" customWidth="1"/>
+    <col min="3335" max="3588" width="9.81640625" style="2"/>
+    <col min="3589" max="3589" width="18.08984375" style="2" customWidth="1"/>
+    <col min="3590" max="3590" width="92.26953125" style="2" customWidth="1"/>
+    <col min="3591" max="3844" width="9.81640625" style="2"/>
+    <col min="3845" max="3845" width="18.08984375" style="2" customWidth="1"/>
+    <col min="3846" max="3846" width="92.26953125" style="2" customWidth="1"/>
+    <col min="3847" max="4100" width="9.81640625" style="2"/>
+    <col min="4101" max="4101" width="18.08984375" style="2" customWidth="1"/>
+    <col min="4102" max="4102" width="92.26953125" style="2" customWidth="1"/>
+    <col min="4103" max="4356" width="9.81640625" style="2"/>
+    <col min="4357" max="4357" width="18.08984375" style="2" customWidth="1"/>
+    <col min="4358" max="4358" width="92.26953125" style="2" customWidth="1"/>
+    <col min="4359" max="4612" width="9.81640625" style="2"/>
+    <col min="4613" max="4613" width="18.08984375" style="2" customWidth="1"/>
+    <col min="4614" max="4614" width="92.26953125" style="2" customWidth="1"/>
+    <col min="4615" max="4868" width="9.81640625" style="2"/>
+    <col min="4869" max="4869" width="18.08984375" style="2" customWidth="1"/>
+    <col min="4870" max="4870" width="92.26953125" style="2" customWidth="1"/>
+    <col min="4871" max="5124" width="9.81640625" style="2"/>
+    <col min="5125" max="5125" width="18.08984375" style="2" customWidth="1"/>
+    <col min="5126" max="5126" width="92.26953125" style="2" customWidth="1"/>
+    <col min="5127" max="5380" width="9.81640625" style="2"/>
+    <col min="5381" max="5381" width="18.08984375" style="2" customWidth="1"/>
+    <col min="5382" max="5382" width="92.26953125" style="2" customWidth="1"/>
+    <col min="5383" max="5636" width="9.81640625" style="2"/>
+    <col min="5637" max="5637" width="18.08984375" style="2" customWidth="1"/>
+    <col min="5638" max="5638" width="92.26953125" style="2" customWidth="1"/>
+    <col min="5639" max="5892" width="9.81640625" style="2"/>
+    <col min="5893" max="5893" width="18.08984375" style="2" customWidth="1"/>
+    <col min="5894" max="5894" width="92.26953125" style="2" customWidth="1"/>
+    <col min="5895" max="6148" width="9.81640625" style="2"/>
+    <col min="6149" max="6149" width="18.08984375" style="2" customWidth="1"/>
+    <col min="6150" max="6150" width="92.26953125" style="2" customWidth="1"/>
+    <col min="6151" max="6404" width="9.81640625" style="2"/>
+    <col min="6405" max="6405" width="18.08984375" style="2" customWidth="1"/>
+    <col min="6406" max="6406" width="92.26953125" style="2" customWidth="1"/>
+    <col min="6407" max="6660" width="9.81640625" style="2"/>
+    <col min="6661" max="6661" width="18.08984375" style="2" customWidth="1"/>
+    <col min="6662" max="6662" width="92.26953125" style="2" customWidth="1"/>
+    <col min="6663" max="6916" width="9.81640625" style="2"/>
+    <col min="6917" max="6917" width="18.08984375" style="2" customWidth="1"/>
+    <col min="6918" max="6918" width="92.26953125" style="2" customWidth="1"/>
+    <col min="6919" max="7172" width="9.81640625" style="2"/>
+    <col min="7173" max="7173" width="18.08984375" style="2" customWidth="1"/>
+    <col min="7174" max="7174" width="92.26953125" style="2" customWidth="1"/>
+    <col min="7175" max="7428" width="9.81640625" style="2"/>
+    <col min="7429" max="7429" width="18.08984375" style="2" customWidth="1"/>
+    <col min="7430" max="7430" width="92.26953125" style="2" customWidth="1"/>
+    <col min="7431" max="7684" width="9.81640625" style="2"/>
+    <col min="7685" max="7685" width="18.08984375" style="2" customWidth="1"/>
+    <col min="7686" max="7686" width="92.26953125" style="2" customWidth="1"/>
+    <col min="7687" max="7940" width="9.81640625" style="2"/>
+    <col min="7941" max="7941" width="18.08984375" style="2" customWidth="1"/>
+    <col min="7942" max="7942" width="92.26953125" style="2" customWidth="1"/>
+    <col min="7943" max="8196" width="9.81640625" style="2"/>
+    <col min="8197" max="8197" width="18.08984375" style="2" customWidth="1"/>
+    <col min="8198" max="8198" width="92.26953125" style="2" customWidth="1"/>
+    <col min="8199" max="8452" width="9.81640625" style="2"/>
+    <col min="8453" max="8453" width="18.08984375" style="2" customWidth="1"/>
+    <col min="8454" max="8454" width="92.26953125" style="2" customWidth="1"/>
+    <col min="8455" max="8708" width="9.81640625" style="2"/>
+    <col min="8709" max="8709" width="18.08984375" style="2" customWidth="1"/>
+    <col min="8710" max="8710" width="92.26953125" style="2" customWidth="1"/>
+    <col min="8711" max="8964" width="9.81640625" style="2"/>
+    <col min="8965" max="8965" width="18.08984375" style="2" customWidth="1"/>
+    <col min="8966" max="8966" width="92.26953125" style="2" customWidth="1"/>
+    <col min="8967" max="9220" width="9.81640625" style="2"/>
+    <col min="9221" max="9221" width="18.08984375" style="2" customWidth="1"/>
+    <col min="9222" max="9222" width="92.26953125" style="2" customWidth="1"/>
+    <col min="9223" max="9476" width="9.81640625" style="2"/>
+    <col min="9477" max="9477" width="18.08984375" style="2" customWidth="1"/>
+    <col min="9478" max="9478" width="92.26953125" style="2" customWidth="1"/>
+    <col min="9479" max="9732" width="9.81640625" style="2"/>
+    <col min="9733" max="9733" width="18.08984375" style="2" customWidth="1"/>
+    <col min="9734" max="9734" width="92.26953125" style="2" customWidth="1"/>
+    <col min="9735" max="9988" width="9.81640625" style="2"/>
+    <col min="9989" max="9989" width="18.08984375" style="2" customWidth="1"/>
+    <col min="9990" max="9990" width="92.26953125" style="2" customWidth="1"/>
+    <col min="9991" max="10244" width="9.81640625" style="2"/>
+    <col min="10245" max="10245" width="18.08984375" style="2" customWidth="1"/>
+    <col min="10246" max="10246" width="92.26953125" style="2" customWidth="1"/>
+    <col min="10247" max="10500" width="9.81640625" style="2"/>
+    <col min="10501" max="10501" width="18.08984375" style="2" customWidth="1"/>
+    <col min="10502" max="10502" width="92.26953125" style="2" customWidth="1"/>
+    <col min="10503" max="10756" width="9.81640625" style="2"/>
+    <col min="10757" max="10757" width="18.08984375" style="2" customWidth="1"/>
+    <col min="10758" max="10758" width="92.26953125" style="2" customWidth="1"/>
+    <col min="10759" max="11012" width="9.81640625" style="2"/>
+    <col min="11013" max="11013" width="18.08984375" style="2" customWidth="1"/>
+    <col min="11014" max="11014" width="92.26953125" style="2" customWidth="1"/>
+    <col min="11015" max="11268" width="9.81640625" style="2"/>
+    <col min="11269" max="11269" width="18.08984375" style="2" customWidth="1"/>
+    <col min="11270" max="11270" width="92.26953125" style="2" customWidth="1"/>
+    <col min="11271" max="11524" width="9.81640625" style="2"/>
+    <col min="11525" max="11525" width="18.08984375" style="2" customWidth="1"/>
+    <col min="11526" max="11526" width="92.26953125" style="2" customWidth="1"/>
+    <col min="11527" max="11780" width="9.81640625" style="2"/>
+    <col min="11781" max="11781" width="18.08984375" style="2" customWidth="1"/>
+    <col min="11782" max="11782" width="92.26953125" style="2" customWidth="1"/>
+    <col min="11783" max="12036" width="9.81640625" style="2"/>
+    <col min="12037" max="12037" width="18.08984375" style="2" customWidth="1"/>
+    <col min="12038" max="12038" width="92.26953125" style="2" customWidth="1"/>
+    <col min="12039" max="12292" width="9.81640625" style="2"/>
+    <col min="12293" max="12293" width="18.08984375" style="2" customWidth="1"/>
+    <col min="12294" max="12294" width="92.26953125" style="2" customWidth="1"/>
+    <col min="12295" max="12548" width="9.81640625" style="2"/>
+    <col min="12549" max="12549" width="18.08984375" style="2" customWidth="1"/>
+    <col min="12550" max="12550" width="92.26953125" style="2" customWidth="1"/>
+    <col min="12551" max="12804" width="9.81640625" style="2"/>
+    <col min="12805" max="12805" width="18.08984375" style="2" customWidth="1"/>
+    <col min="12806" max="12806" width="92.26953125" style="2" customWidth="1"/>
+    <col min="12807" max="13060" width="9.81640625" style="2"/>
+    <col min="13061" max="13061" width="18.08984375" style="2" customWidth="1"/>
+    <col min="13062" max="13062" width="92.26953125" style="2" customWidth="1"/>
+    <col min="13063" max="13316" width="9.81640625" style="2"/>
+    <col min="13317" max="13317" width="18.08984375" style="2" customWidth="1"/>
+    <col min="13318" max="13318" width="92.26953125" style="2" customWidth="1"/>
+    <col min="13319" max="13572" width="9.81640625" style="2"/>
+    <col min="13573" max="13573" width="18.08984375" style="2" customWidth="1"/>
+    <col min="13574" max="13574" width="92.26953125" style="2" customWidth="1"/>
+    <col min="13575" max="13828" width="9.81640625" style="2"/>
+    <col min="13829" max="13829" width="18.08984375" style="2" customWidth="1"/>
+    <col min="13830" max="13830" width="92.26953125" style="2" customWidth="1"/>
+    <col min="13831" max="14084" width="9.81640625" style="2"/>
+    <col min="14085" max="14085" width="18.08984375" style="2" customWidth="1"/>
+    <col min="14086" max="14086" width="92.26953125" style="2" customWidth="1"/>
+    <col min="14087" max="14340" width="9.81640625" style="2"/>
+    <col min="14341" max="14341" width="18.08984375" style="2" customWidth="1"/>
+    <col min="14342" max="14342" width="92.26953125" style="2" customWidth="1"/>
+    <col min="14343" max="14596" width="9.81640625" style="2"/>
+    <col min="14597" max="14597" width="18.08984375" style="2" customWidth="1"/>
+    <col min="14598" max="14598" width="92.26953125" style="2" customWidth="1"/>
+    <col min="14599" max="14852" width="9.81640625" style="2"/>
+    <col min="14853" max="14853" width="18.08984375" style="2" customWidth="1"/>
+    <col min="14854" max="14854" width="92.26953125" style="2" customWidth="1"/>
+    <col min="14855" max="15108" width="9.81640625" style="2"/>
+    <col min="15109" max="15109" width="18.08984375" style="2" customWidth="1"/>
+    <col min="15110" max="15110" width="92.26953125" style="2" customWidth="1"/>
+    <col min="15111" max="15364" width="9.81640625" style="2"/>
+    <col min="15365" max="15365" width="18.08984375" style="2" customWidth="1"/>
+    <col min="15366" max="15366" width="92.26953125" style="2" customWidth="1"/>
+    <col min="15367" max="15620" width="9.81640625" style="2"/>
+    <col min="15621" max="15621" width="18.08984375" style="2" customWidth="1"/>
+    <col min="15622" max="15622" width="92.26953125" style="2" customWidth="1"/>
+    <col min="15623" max="15876" width="9.81640625" style="2"/>
+    <col min="15877" max="15877" width="18.08984375" style="2" customWidth="1"/>
+    <col min="15878" max="15878" width="92.26953125" style="2" customWidth="1"/>
+    <col min="15879" max="16132" width="9.81640625" style="2"/>
+    <col min="16133" max="16133" width="18.08984375" style="2" customWidth="1"/>
+    <col min="16134" max="16134" width="92.26953125" style="2" customWidth="1"/>
+    <col min="16135" max="16384" width="9.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>2</v>
@@ -8942,7 +8942,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -8950,7 +8950,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -8958,7 +8958,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -8966,7 +8966,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -8974,7 +8974,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -8982,7 +8982,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -8990,7 +8990,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="52.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="53" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="9" t="s">
         <v>3</v>
@@ -9054,7 +9054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="35.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="35.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13"/>
       <c r="C13" s="14" t="s">
         <v>14</v>
@@ -9086,7 +9086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13"/>
       <c r="C15" s="17" t="s">
         <v>22</v>
@@ -9101,7 +9101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -9123,7 +9123,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="35.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="35.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13"/>
       <c r="C18" s="14" t="s">
         <v>14</v>
@@ -9138,7 +9138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="52.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="53" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="22" t="s">
         <v>24</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="22"/>
       <c r="C20" s="19" t="s">
         <v>22</v>
@@ -9170,7 +9170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="22"/>
       <c r="C21" s="24"/>
       <c r="D21" s="25"/>
@@ -9192,7 +9192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="35.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" ht="35.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="22"/>
       <c r="C23" s="14" t="s">
         <v>14</v>
@@ -9207,7 +9207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="35.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="35.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="29" t="s">
         <v>26</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="35.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" ht="35.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="22"/>
       <c r="C26" s="21" t="s">
         <v>29</v>
@@ -9269,7 +9269,7 @@
       </c>
       <c r="F27" s="21"/>
     </row>
-    <row r="28" spans="2:6" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="22"/>
       <c r="C28" s="21" t="s">
         <v>12</v>
@@ -9284,7 +9284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="52.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="22"/>
       <c r="C29" s="21" t="s">
         <v>34</v>
@@ -9299,7 +9299,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="58.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="22" t="s">
         <v>35</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="22"/>
       <c r="C32" s="19" t="s">
         <v>40</v>
@@ -9346,7 +9346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="22"/>
       <c r="C33" s="24"/>
       <c r="D33" s="25"/>
@@ -9366,7 +9366,7 @@
       </c>
       <c r="F34" s="14"/>
     </row>
-    <row r="35" spans="1:6" ht="35.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="35.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="22"/>
       <c r="C35" s="14" t="s">
         <v>14</v>
@@ -9381,7 +9381,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="17.5" x14ac:dyDescent="0.25">
       <c r="B36" s="35" t="s">
         <v>42</v>
       </c>
@@ -9390,7 +9390,7 @@
       <c r="E36" s="35"/>
       <c r="F36" s="35"/>
     </row>
-    <row r="37" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="17.5" x14ac:dyDescent="0.25">
       <c r="B37" s="35" t="s">
         <v>43</v>
       </c>
@@ -9399,7 +9399,7 @@
       <c r="E37" s="35"/>
       <c r="F37" s="35"/>
     </row>
-    <row r="38" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="17.5" x14ac:dyDescent="0.25">
       <c r="B38" s="36" t="s">
         <v>44</v>
       </c>
@@ -9408,7 +9408,7 @@
       <c r="E38" s="36"/>
       <c r="F38" s="36"/>
     </row>
-    <row r="48" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="37" t="s">
         <v>45</v>
       </c>
@@ -9436,7 +9436,7 @@
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
     </row>
-    <row r="50" spans="1:8" ht="35.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="35.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="24"/>
       <c r="C50" s="10" t="s">
@@ -9532,7 +9532,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="35.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="35.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
       <c r="B54" s="14" t="s">
         <v>14</v>
@@ -9630,7 +9630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="35.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="35.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13"/>
       <c r="B58" s="14" t="s">
         <v>14</v>
@@ -9680,7 +9680,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="42"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -9738,7 +9738,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="35.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="35.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="42"/>
       <c r="B63" s="14" t="s">
         <v>14</v>
@@ -9798,7 +9798,7 @@
       <c r="G66" s="47"/>
       <c r="H66" s="47"/>
     </row>
-    <row r="67" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" s="49"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -9817,7 +9817,7 @@
       <c r="E69" s="50"/>
       <c r="F69" s="50"/>
     </row>
-    <row r="70" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="37" t="s">
         <v>54</v>
       </c>
@@ -9845,7 +9845,7 @@
       <c r="G71" s="24"/>
       <c r="H71" s="24"/>
     </row>
-    <row r="72" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="39"/>
       <c r="C72" s="51" t="s">
@@ -9867,7 +9867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="39"/>
       <c r="C73" s="17"/>
@@ -9877,7 +9877,7 @@
       <c r="G73" s="54"/>
       <c r="H73" s="55"/>
     </row>
-    <row r="74" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="39"/>
       <c r="C74" s="17"/>
@@ -9887,7 +9887,7 @@
       <c r="G74" s="54"/>
       <c r="H74" s="55"/>
     </row>
-    <row r="75" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="39"/>
       <c r="C75" s="17"/>
@@ -9897,7 +9897,7 @@
       <c r="G75" s="54"/>
       <c r="H75" s="55"/>
     </row>
-    <row r="76" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="39"/>
       <c r="C76" s="17"/>
@@ -9907,7 +9907,7 @@
       <c r="G76" s="54"/>
       <c r="H76" s="55"/>
     </row>
-    <row r="77" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="24"/>
       <c r="C77" s="56"/>
@@ -9991,7 +9991,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="35.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="35.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="13"/>
       <c r="B81" s="14" t="s">
         <v>14</v>
@@ -10015,7 +10015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="52.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="53" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
         <v>18</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="35.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="35.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="13"/>
       <c r="B84" s="14" t="s">
         <v>14</v>
@@ -10089,7 +10089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="52.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="53" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="42" t="s">
         <v>24</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="35.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="35.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="42"/>
       <c r="B87" s="14" t="s">
         <v>14</v>
@@ -10263,7 +10263,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H1" location="目录!A1" display="返回" xr:uid="{709CA217-D46C-4C81-A8D5-44C4C9200AE2}"/>
+    <hyperlink ref="H1" location="目录!A1" display="返回" xr:uid="{74201320-983F-4E11-BF63-5AA861769641}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="22" orientation="portrait" r:id="rId1"/>
